--- a/results/03a_factor_inspection/Tables.xlsx
+++ b/results/03a_factor_inspection/Tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="79">
   <si>
     <t>chFA_1</t>
   </si>
@@ -136,109 +136,121 @@
     <t>-0.93</t>
   </si>
   <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
     <t>0.98</t>
   </si>
   <si>
-    <t>0.32</t>
+    <t>0.33</t>
   </si>
   <si>
     <t>0.25</t>
   </si>
   <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>-0.33</t>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>-0.37</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>-0.92</t>
   </si>
   <si>
     <t>0.34</t>
   </si>
   <si>
-    <t>-0.92</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
     <t>-0.94</t>
   </si>
   <si>
-    <t>0.47</t>
+    <t>0.30</t>
   </si>
   <si>
     <t>-0.95</t>
   </si>
   <si>
-    <t>0.56</t>
-  </si>
-  <si>
     <t>0.92</t>
   </si>
   <si>
     <t>-0.85</t>
   </si>
   <si>
-    <t>-0.69</t>
+    <t>-0.70</t>
   </si>
   <si>
     <t>-0.60</t>
   </si>
   <si>
-    <t>-0.50</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>-0.45</t>
-  </si>
-  <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>0.30</t>
+    <t>-0.51</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>-0.53</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>-0.31</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>-0.58</t>
+  </si>
+  <si>
+    <t>-0.47</t>
+  </si>
+  <si>
+    <t>-0.28</t>
   </si>
   <si>
     <t>-0.24</t>
   </si>
   <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>-0.49</t>
-  </si>
-  <si>
-    <t>-0.28</t>
-  </si>
-  <si>
     <t>-0.76</t>
   </si>
   <si>
+    <t>0.88</t>
+  </si>
+  <si>
     <t>-0.68</t>
   </si>
   <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>-0.04</t>
+    <t>0.79</t>
   </si>
   <si>
     <t>-0.74</t>
   </si>
   <si>
-    <t>-0.71</t>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>-0.72</t>
+  </si>
+  <si>
+    <t>0.00</t>
   </si>
 </sst>
 </file>
@@ -490,19 +502,19 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -513,13 +525,13 @@
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -533,16 +545,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -559,7 +571,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -571,7 +583,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -579,13 +591,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>49</v>
@@ -594,7 +606,7 @@
         <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -602,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
         <v>38</v>
@@ -659,10 +671,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
         <v>60</v>
@@ -671,10 +683,10 @@
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -682,22 +694,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -705,22 +717,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -731,7 +743,7 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
         <v>63</v>
@@ -740,10 +752,10 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -751,19 +763,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
         <v>66</v>
@@ -774,7 +786,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
@@ -783,13 +795,13 @@
         <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
